--- a/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC08_VerifyProductListPLP.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC08_VerifyProductListPLP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_Sanity\Input_files\Actual_testcases\Kaman\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC9A581-AB63-41B8-88B1-DE851C71ED29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA96FA0C-574F-4255-BC81-952F1123C069}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>TestCase</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>CSS</t>
+  </si>
+  <si>
+    <t>MountedBearings</t>
+  </si>
+  <si>
+    <t>EleType1</t>
+  </si>
+  <si>
+    <t>EleType2</t>
+  </si>
+  <si>
+    <t>JSElement</t>
   </si>
 </sst>
 </file>
@@ -507,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D8"/>
+      <selection activeCell="A3" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -590,23 +602,19 @@
     <row r="6" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>20</v>
@@ -616,15 +624,41 @@
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -637,10 +671,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -671,6 +705,22 @@
       </c>
       <c r="B3" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
